--- a/config_5.25/activity_ty_task_config.xlsx
+++ b/config_5.25/activity_ty_task_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="base|基础" sheetId="6" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="182">
   <si>
     <t>index|索引</t>
   </si>
@@ -125,6 +125,15 @@
     <t>奖励话费_byam</t>
   </si>
   <si>
+    <t>act_ymfl</t>
+  </si>
+  <si>
+    <t>ymfl_bg_1</t>
+  </si>
+  <si>
+    <t>月末返利</t>
+  </si>
+  <si>
     <t>tge_index|标签</t>
   </si>
   <si>
@@ -193,6 +202,9 @@
       </rPr>
       <t>6,37,38,39,40</t>
     </r>
+  </si>
+  <si>
+    <t>94,95,96,97,98,99,100,101,102</t>
   </si>
   <si>
     <t>id|</t>
@@ -639,16 +651,91 @@
       <t>00000</t>
     </r>
   </si>
+  <si>
+    <t>"jing_bi","prop_web_chip_huafei",</t>
+  </si>
+  <si>
+    <t>"15000000","2400",</t>
+  </si>
+  <si>
+    <t>"shop_bay",</t>
+  </si>
+  <si>
+    <t>swjl_1</t>
+  </si>
+  <si>
+    <t>美的智能风扇</t>
+  </si>
+  <si>
+    <t>"4000000","900",</t>
+  </si>
+  <si>
+    <t>swjl_2</t>
+  </si>
+  <si>
+    <t>不锈钢绞肉机</t>
+  </si>
+  <si>
+    <t>"2000000","450",</t>
+  </si>
+  <si>
+    <t>swjl_3</t>
+  </si>
+  <si>
+    <t>豪华坚果礼包</t>
+  </si>
+  <si>
+    <t>"800000","150",</t>
+  </si>
+  <si>
+    <t>swjl_4</t>
+  </si>
+  <si>
+    <t>玉米热狗肠20支</t>
+  </si>
+  <si>
+    <t>"400000","70",</t>
+  </si>
+  <si>
+    <t>swjl_5</t>
+  </si>
+  <si>
+    <t>卫龙亲嘴烧30袋</t>
+  </si>
+  <si>
+    <t>"350000","50",</t>
+  </si>
+  <si>
+    <t>swjl_6</t>
+  </si>
+  <si>
+    <t>手帕纸10包</t>
+  </si>
+  <si>
+    <t>"220000","30",</t>
+  </si>
+  <si>
+    <t>swjl_7</t>
+  </si>
+  <si>
+    <t>棉签100支</t>
+  </si>
+  <si>
+    <t>"150000","20",</t>
+  </si>
+  <si>
+    <t>"80000","10",</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -696,7 +783,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -709,6 +796,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
@@ -716,8 +827,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -731,64 +850,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -800,9 +865,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -810,7 +874,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -826,13 +898,28 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -865,6 +952,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -872,6 +965,42 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -889,7 +1018,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -901,19 +1072,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -925,7 +1084,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -937,19 +1108,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -961,79 +1126,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1062,11 +1155,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1090,22 +1198,27 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1125,15 +1238,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1148,27 +1252,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1177,138 +1270,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1356,17 +1449,23 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1687,13 +1786,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="11.25" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
@@ -1706,62 +1805,62 @@
     <col min="9" max="9" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="19" customFormat="1" spans="1:7">
-      <c r="A1" s="20" t="s">
+    <row r="1" s="21" customFormat="1" spans="1:7">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="20" t="s">
+      <c r="B1" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="22" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:7">
-      <c r="A2" s="21">
-        <v>1</v>
-      </c>
-      <c r="B2" s="22" t="s">
+      <c r="A2" s="23">
+        <v>1</v>
+      </c>
+      <c r="B2" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="22">
-        <v>1</v>
-      </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
+      <c r="E2" s="24">
+        <v>1</v>
+      </c>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
     </row>
     <row r="3" ht="15.75" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="24">
+      <c r="E3" s="26">
         <v>2</v>
       </c>
     </row>
@@ -1769,16 +1868,16 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="26">
         <v>3</v>
       </c>
     </row>
@@ -1786,16 +1885,16 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="26">
         <v>4</v>
       </c>
     </row>
@@ -1803,16 +1902,16 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="26">
         <v>5</v>
       </c>
     </row>
@@ -1820,16 +1919,16 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="26">
         <v>6</v>
       </c>
     </row>
@@ -1837,17 +1936,34 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="24" t="s">
         <v>22</v>
       </c>
       <c r="E8">
         <v>7</v>
+      </c>
+    </row>
+    <row r="9" ht="15.75" spans="1:5">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1860,13 +1976,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="13.875" customWidth="1"/>
     <col min="2" max="2" width="20.375" customWidth="1"/>
@@ -1878,160 +1994,160 @@
     <col min="8" max="8" width="30.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="19" customFormat="1" spans="1:7">
-      <c r="A1" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="20" t="s">
+    <row r="1" s="21" customFormat="1" spans="1:7">
+      <c r="A1" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="B1" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="C1" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="D1" s="22" t="s">
         <v>29</v>
       </c>
+      <c r="E1" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="21">
-        <v>1</v>
-      </c>
-      <c r="B2" s="22" t="s">
+      <c r="A2" s="23">
+        <v>1</v>
+      </c>
+      <c r="B2" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="23">
-        <v>1</v>
-      </c>
-      <c r="D2" s="23">
-        <v>1</v>
-      </c>
-      <c r="E2" s="24">
-        <v>1</v>
-      </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22" t="s">
-        <v>30</v>
+      <c r="C2" s="25">
+        <v>1</v>
+      </c>
+      <c r="D2" s="25">
+        <v>1</v>
+      </c>
+      <c r="E2" s="26">
+        <v>1</v>
+      </c>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="21">
+      <c r="A3" s="23">
         <v>2</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="23">
-        <v>1</v>
-      </c>
-      <c r="D3" s="23">
-        <v>1</v>
-      </c>
-      <c r="E3" s="24">
-        <v>1</v>
-      </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22" t="s">
-        <v>31</v>
+      <c r="C3" s="25">
+        <v>1</v>
+      </c>
+      <c r="D3" s="25">
+        <v>1</v>
+      </c>
+      <c r="E3" s="26">
+        <v>1</v>
+      </c>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="21">
+      <c r="A4" s="23">
         <v>3</v>
       </c>
-      <c r="B4" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="23">
+      <c r="B4" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="25">
         <v>0</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4" s="25">
         <v>0</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="26">
         <v>0</v>
       </c>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22" t="s">
-        <v>33</v>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="25">
+      <c r="A5" s="27">
         <v>4</v>
       </c>
-      <c r="B5" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="24">
+      <c r="B5" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="26">
         <v>0</v>
       </c>
-      <c r="D5" s="24">
+      <c r="D5" s="26">
         <v>0</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="26">
         <v>0</v>
       </c>
-      <c r="F5" s="24"/>
-      <c r="G5" s="22" t="s">
-        <v>35</v>
+      <c r="F5" s="26"/>
+      <c r="G5" s="24" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="21">
+      <c r="A6" s="23">
         <v>5</v>
       </c>
-      <c r="B6" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="23">
+      <c r="B6" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="25">
         <v>0</v>
       </c>
-      <c r="D6" s="24">
+      <c r="D6" s="26">
         <v>0</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="26">
         <v>0</v>
       </c>
-      <c r="F6" s="24"/>
-      <c r="G6" s="22" t="s">
-        <v>37</v>
+      <c r="F6" s="26"/>
+      <c r="G6" s="24" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="21">
+      <c r="A7" s="23">
         <v>6</v>
       </c>
-      <c r="B7" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="24">
+      <c r="B7" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="26">
         <v>0</v>
       </c>
-      <c r="D7" s="24">
+      <c r="D7" s="26">
         <v>0</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="26">
         <v>0</v>
       </c>
-      <c r="F7" s="24"/>
-      <c r="G7" s="22" t="s">
-        <v>39</v>
+      <c r="F7" s="26"/>
+      <c r="G7" s="24" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="24" t="s">
         <v>21</v>
       </c>
       <c r="C8">
@@ -2042,6 +2158,26 @@
       </c>
       <c r="E8">
         <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -2054,10 +2190,12 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S94"/>
+  <dimension ref="A1:S103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="F97" sqref="F97"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="A101" sqref="A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -2086,61 +2224,61 @@
   <sheetData>
     <row r="1" ht="32.25" customHeight="1" spans="1:19">
       <c r="A1" s="4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="Q1" s="15" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="R1" s="15" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="S1" s="15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:19">
@@ -2151,22 +2289,22 @@
         <v>1000563</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="I2" s="5"/>
       <c r="M2" s="7"/>
@@ -2184,22 +2322,22 @@
         <v>1000564</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D3" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>61</v>
-      </c>
       <c r="G3" s="8" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="7"/>
@@ -2219,22 +2357,22 @@
         <v>1000565</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D4" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>67</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>63</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="7"/>
@@ -2252,22 +2390,22 @@
         <v>1000566</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="7"/>
@@ -2285,22 +2423,22 @@
         <v>1000567</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="7"/>
@@ -2318,22 +2456,22 @@
         <v>1000568</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="7"/>
@@ -2352,22 +2490,22 @@
         <v>1000569</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I8" s="5"/>
     </row>
@@ -2379,22 +2517,22 @@
         <v>1000570</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I9" s="5"/>
     </row>
@@ -2406,22 +2544,22 @@
         <v>1000571</v>
       </c>
       <c r="C10" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>74</v>
-      </c>
       <c r="H10" s="5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I10" s="5"/>
     </row>
@@ -2436,19 +2574,19 @@
         <v>1</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I11" s="5"/>
     </row>
@@ -2460,22 +2598,22 @@
         <v>1000573</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I12" s="5"/>
     </row>
@@ -2487,22 +2625,22 @@
         <v>1000574</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I13" s="5"/>
     </row>
@@ -2514,22 +2652,22 @@
         <v>1000575</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I14" s="5"/>
     </row>
@@ -2541,22 +2679,22 @@
         <v>1000576</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I15" s="5"/>
     </row>
@@ -2568,22 +2706,22 @@
         <v>1000577</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I16" s="5"/>
     </row>
@@ -2595,22 +2733,22 @@
         <v>1000578</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I17" s="5"/>
     </row>
@@ -2622,22 +2760,22 @@
         <v>1000579</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I18" s="5"/>
     </row>
@@ -2649,22 +2787,22 @@
         <v>1000580</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I19" s="5"/>
     </row>
@@ -2676,22 +2814,22 @@
         <v>1000581</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I20" s="5"/>
     </row>
@@ -2706,19 +2844,19 @@
         <v>1</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I21" s="5"/>
     </row>
@@ -2733,22 +2871,22 @@
         <v>3</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E22" s="2">
         <v>1</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" s="2" customFormat="1" spans="1:9">
@@ -2762,22 +2900,22 @@
         <v>3</v>
       </c>
       <c r="D23" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="E23" s="2">
+        <v>1</v>
+      </c>
+      <c r="F23" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="E23" s="2">
-        <v>1</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>93</v>
-      </c>
       <c r="G23" s="11" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" s="2" customFormat="1" spans="1:9">
@@ -2791,22 +2929,22 @@
         <v>3</v>
       </c>
       <c r="D24" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="E24" s="2">
+        <v>1</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="H24" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="E24" s="2">
-        <v>1</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="G24" s="11" t="s">
+      <c r="I24" s="9" t="s">
         <v>100</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="I24" s="9" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="25" s="2" customFormat="1" spans="1:9">
@@ -2820,22 +2958,22 @@
         <v>3</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E25" s="2">
         <v>1</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" s="2" customFormat="1" spans="1:15">
@@ -2849,22 +2987,22 @@
         <v>3</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E26" s="2">
         <v>1</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M26" s="10"/>
       <c r="O26" s="10"/>
@@ -2880,22 +3018,22 @@
         <v>3</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E27" s="2">
         <v>1</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M27" s="10"/>
       <c r="O27" s="10"/>
@@ -2911,22 +3049,22 @@
         <v>3</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E28" s="2">
         <v>1</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
@@ -2944,22 +3082,22 @@
         <v>3</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E29" s="2">
         <v>1</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" s="2" customFormat="1" spans="1:9">
@@ -2973,22 +3111,22 @@
         <v>3</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E30" s="2">
         <v>1</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="I30" s="9" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" s="2" customFormat="1" spans="1:9">
@@ -3002,22 +3140,22 @@
         <v>3</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E31" s="2">
         <v>1</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" s="2" customFormat="1" spans="1:9">
@@ -3031,22 +3169,22 @@
         <v>3</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E32" s="2">
         <v>1</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="I32" s="14" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33" s="2" customFormat="1" spans="1:9">
@@ -3060,22 +3198,22 @@
         <v>3</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E33" s="2">
         <v>1</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="I33" s="14" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34" s="2" customFormat="1" spans="1:9">
@@ -3089,22 +3227,22 @@
         <v>3</v>
       </c>
       <c r="D34" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="E34" s="2">
+        <v>1</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="H34" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="E34" s="2">
-        <v>1</v>
-      </c>
-      <c r="F34" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="G34" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="H34" s="9" t="s">
-        <v>95</v>
-      </c>
       <c r="I34" s="14" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35" s="2" customFormat="1" spans="1:15">
@@ -3118,22 +3256,22 @@
         <v>3</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E35" s="2">
         <v>1</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="I35" s="14" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="M35" s="10"/>
       <c r="O35" s="10"/>
@@ -3149,22 +3287,22 @@
         <v>3</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E36" s="2">
         <v>1</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G36" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="I36" s="14" t="s">
         <v>120</v>
-      </c>
-      <c r="H36" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="I36" s="14" t="s">
-        <v>116</v>
       </c>
       <c r="M36" s="10"/>
       <c r="O36" s="10"/>
@@ -3180,22 +3318,22 @@
         <v>3</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E37" s="2">
         <v>1</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="I37" s="14" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="M37" s="10"/>
     </row>
@@ -3210,22 +3348,22 @@
         <v>3</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E38" s="2">
         <v>1</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="I38" s="14" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39" s="2" customFormat="1" spans="1:9">
@@ -3239,22 +3377,22 @@
         <v>3</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E39" s="2">
         <v>1</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="I39" s="14" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="40" s="2" customFormat="1" spans="1:9">
@@ -3268,22 +3406,22 @@
         <v>3</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E40" s="2">
         <v>1</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="I40" s="14" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41" s="2" customFormat="1" spans="1:9">
@@ -3297,22 +3435,22 @@
         <v>3</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E41" s="2">
         <v>1</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G41" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="H41" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="I41" s="14" t="s">
         <v>120</v>
-      </c>
-      <c r="H41" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="I41" s="14" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3326,19 +3464,19 @@
         <v>1</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E42" s="2">
         <v>1</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3352,19 +3490,19 @@
         <v>3</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E43" s="2">
         <v>1</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3378,19 +3516,19 @@
         <v>8</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E44" s="2">
         <v>1</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3404,19 +3542,19 @@
         <v>5</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E45" s="2">
         <v>1</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3430,19 +3568,19 @@
         <v>5</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E46" s="2">
         <v>1</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3456,19 +3594,19 @@
         <v>1</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E47" s="2">
         <v>1</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3482,19 +3620,19 @@
         <v>6</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E48" s="2">
         <v>1</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3508,19 +3646,19 @@
         <v>6</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E49" s="2">
         <v>1</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3534,19 +3672,19 @@
         <v>2</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E50" s="2">
         <v>1</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3560,19 +3698,19 @@
         <v>4</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E51" s="2">
         <v>1</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3586,19 +3724,19 @@
         <v>3</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E52" s="2">
         <v>1</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3612,19 +3750,19 @@
         <v>1</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E53" s="2">
         <v>1</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3638,19 +3776,19 @@
         <v>1</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E54" s="2">
         <v>1</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3664,19 +3802,19 @@
         <v>5</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E55" s="2">
         <v>1</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3690,19 +3828,19 @@
         <v>3</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E56" s="2">
         <v>1</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3716,19 +3854,19 @@
         <v>6</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E57" s="2">
         <v>1</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3742,19 +3880,19 @@
         <v>3</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E58" s="2">
         <v>1</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3768,19 +3906,19 @@
         <v>2</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E59" s="2">
         <v>1</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3794,19 +3932,19 @@
         <v>4</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E60" s="2">
         <v>1</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3820,19 +3958,19 @@
         <v>3</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E61" s="2">
         <v>1</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3846,19 +3984,19 @@
         <v>300000</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E62" s="2">
         <v>1</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3872,19 +4010,19 @@
         <v>600000</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E63" s="2">
         <v>1</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3898,19 +4036,19 @@
         <v>3</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E64" s="2">
         <v>1</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3924,19 +4062,19 @@
         <v>1</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E65" s="2">
         <v>1</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3950,19 +4088,19 @@
         <v>5</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E66" s="2">
         <v>1</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3976,19 +4114,19 @@
         <v>5</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E67" s="2">
         <v>1</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -4002,19 +4140,19 @@
         <v>1</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E68" s="2">
         <v>1</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -4028,19 +4166,19 @@
         <v>6</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E69" s="2">
         <v>1</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -4054,19 +4192,19 @@
         <v>6</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E70" s="2">
         <v>1</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -4080,19 +4218,19 @@
         <v>2</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E71" s="2">
         <v>1</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -4106,19 +4244,19 @@
         <v>4</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E72" s="2">
         <v>1</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -4132,19 +4270,19 @@
         <v>3</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E73" s="2">
         <v>1</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -4158,19 +4296,19 @@
         <v>1</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E74" s="2">
         <v>1</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -4181,22 +4319,22 @@
         <v>1000617</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E75" s="2">
         <v>1</v>
       </c>
       <c r="F75" s="17" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4207,22 +4345,22 @@
         <v>1000618</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E76" s="2">
         <v>1</v>
       </c>
       <c r="F76" s="17" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -4233,22 +4371,22 @@
         <v>1000619</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E77" s="2">
         <v>1</v>
       </c>
       <c r="F77" s="17" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4259,22 +4397,22 @@
         <v>1000620</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E78" s="2">
         <v>1</v>
       </c>
       <c r="F78" s="17" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4285,22 +4423,22 @@
         <v>1000621</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E79" s="2">
         <v>1</v>
       </c>
       <c r="F79" s="17" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4311,22 +4449,22 @@
         <v>1000622</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E80" s="2">
         <v>1</v>
       </c>
       <c r="F80" s="17" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4337,22 +4475,22 @@
         <v>1000623</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E81" s="2">
         <v>1</v>
       </c>
       <c r="F81" s="17" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="H81" s="5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4363,22 +4501,22 @@
         <v>1000624</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E82" s="2">
         <v>1</v>
       </c>
       <c r="F82" s="17" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4389,22 +4527,22 @@
         <v>1000625</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E83" s="2">
         <v>1</v>
       </c>
       <c r="F83" s="17" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H83" s="5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4415,22 +4553,22 @@
         <v>1000626</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E84" s="2">
         <v>1</v>
       </c>
       <c r="F84" s="17" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="H84" s="5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4441,22 +4579,22 @@
         <v>1000627</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E85" s="2">
         <v>1</v>
       </c>
       <c r="F85" s="17" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="H85" s="5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4467,22 +4605,22 @@
         <v>1000628</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E86" s="2">
         <v>1</v>
       </c>
       <c r="F86" s="17" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H86" s="5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4493,22 +4631,22 @@
         <v>1000629</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E87" s="2">
         <v>1</v>
       </c>
       <c r="F87" s="17" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="H87" s="5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4519,22 +4657,22 @@
         <v>1000630</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E88" s="2">
         <v>1</v>
       </c>
       <c r="F88" s="17" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="H88" s="5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4545,22 +4683,22 @@
         <v>1000631</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E89" s="2">
         <v>1</v>
       </c>
       <c r="F89" s="17" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="H89" s="5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4571,22 +4709,22 @@
         <v>1000632</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E90" s="2">
         <v>1</v>
       </c>
       <c r="F90" s="17" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="H90" s="5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4597,22 +4735,22 @@
         <v>1000633</v>
       </c>
       <c r="C91" s="18" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E91" s="2">
         <v>1</v>
       </c>
       <c r="F91" s="17" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="H91" s="5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4623,22 +4761,22 @@
         <v>1000634</v>
       </c>
       <c r="C92" s="18" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E92" s="2">
         <v>1</v>
       </c>
       <c r="F92" s="17" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H92" s="5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4649,22 +4787,22 @@
         <v>1000635</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E93" s="2">
         <v>1</v>
       </c>
       <c r="F93" s="17" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H93" s="5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4675,22 +4813,298 @@
         <v>1000636</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E94" s="2">
         <v>1</v>
       </c>
       <c r="F94" s="17" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="H94" s="5" t="s">
-        <v>72</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
+      <c r="A95" s="9">
+        <v>94</v>
+      </c>
+      <c r="B95" s="19">
+        <v>1000639</v>
+      </c>
+      <c r="C95" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D95" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="E95" s="2">
+        <v>1</v>
+      </c>
+      <c r="F95" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="H95" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="J95" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="K95" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
+      <c r="A96" s="9">
+        <v>95</v>
+      </c>
+      <c r="B96" s="19">
+        <v>1000640</v>
+      </c>
+      <c r="C96" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D96" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="E96" s="2">
+        <v>1</v>
+      </c>
+      <c r="F96" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="H96" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="J96" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="K96" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
+      <c r="A97" s="9">
+        <v>96</v>
+      </c>
+      <c r="B97" s="19">
+        <v>1000641</v>
+      </c>
+      <c r="C97" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D97" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="E97" s="2">
+        <v>1</v>
+      </c>
+      <c r="F97" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="H97" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="J97" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="K97" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
+      <c r="A98" s="9">
+        <v>97</v>
+      </c>
+      <c r="B98" s="19">
+        <v>1000642</v>
+      </c>
+      <c r="C98" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D98" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="E98" s="2">
+        <v>1</v>
+      </c>
+      <c r="F98" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="H98" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="J98" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="K98" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
+      <c r="A99" s="9">
+        <v>98</v>
+      </c>
+      <c r="B99" s="19">
+        <v>1000643</v>
+      </c>
+      <c r="C99" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D99" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="E99" s="2">
+        <v>1</v>
+      </c>
+      <c r="F99" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="H99" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="J99" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="K99" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
+      <c r="A100" s="9">
+        <v>99</v>
+      </c>
+      <c r="B100" s="19">
+        <v>1000644</v>
+      </c>
+      <c r="C100" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D100" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="E100" s="2">
+        <v>1</v>
+      </c>
+      <c r="F100" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
+      <c r="A101" s="9">
+        <v>100</v>
+      </c>
+      <c r="B101" s="19">
+        <v>1000645</v>
+      </c>
+      <c r="C101" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D101" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E101" s="2">
+        <v>1</v>
+      </c>
+      <c r="F101" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" s="9">
+        <v>101</v>
+      </c>
+      <c r="B102" s="19">
+        <v>1000646</v>
+      </c>
+      <c r="C102" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D102" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="E102" s="2">
+        <v>1</v>
+      </c>
+      <c r="F102" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" s="9">
+        <v>102</v>
+      </c>
+      <c r="B103" s="19">
+        <v>1000647</v>
+      </c>
+      <c r="C103" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D103" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="E103" s="2">
+        <v>1</v>
+      </c>
+      <c r="F103" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="G103" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="H103" s="3" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/config_5.25/activity_ty_task_config.xlsx
+++ b/config_5.25/activity_ty_task_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="base|基础" sheetId="6" r:id="rId1"/>
@@ -733,9 +733,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -782,6 +782,21 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -796,6 +811,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -804,8 +833,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -821,44 +858,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -874,7 +897,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -890,30 +913,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -970,7 +970,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -982,7 +1006,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -994,31 +1048,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1030,43 +1066,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1078,31 +1084,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1120,13 +1102,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1156,16 +1156,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1180,16 +1180,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1212,13 +1212,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1238,17 +1242,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1258,10 +1258,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1270,133 +1270,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -1440,6 +1440,9 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="31" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1448,9 +1451,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1788,8 +1788,8 @@
   <sheetPr/>
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -1979,7 +1979,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -2190,12 +2190,12 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S103"/>
+  <dimension ref="A1:S104"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A101" sqref="A101"/>
+      <selection pane="bottomLeft" activeCell="F106" sqref="F106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -4315,10 +4315,10 @@
       <c r="A75" s="9">
         <v>74</v>
       </c>
-      <c r="B75" s="1">
-        <v>1000617</v>
-      </c>
-      <c r="C75" s="16" t="s">
+      <c r="B75" s="16">
+        <v>1000619</v>
+      </c>
+      <c r="C75" s="17" t="s">
         <v>72</v>
       </c>
       <c r="D75" s="3" t="s">
@@ -4327,7 +4327,7 @@
       <c r="E75" s="2">
         <v>1</v>
       </c>
-      <c r="F75" s="17" t="s">
+      <c r="F75" s="18" t="s">
         <v>143</v>
       </c>
       <c r="G75" s="3" t="s">
@@ -4341,10 +4341,10 @@
       <c r="A76" s="9">
         <v>75</v>
       </c>
-      <c r="B76" s="1">
-        <v>1000618</v>
-      </c>
-      <c r="C76" s="16" t="s">
+      <c r="B76" s="16">
+        <v>1000620</v>
+      </c>
+      <c r="C76" s="17" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3" t="s">
@@ -4353,7 +4353,7 @@
       <c r="E76" s="2">
         <v>1</v>
       </c>
-      <c r="F76" s="17" t="s">
+      <c r="F76" s="18" t="s">
         <v>143</v>
       </c>
       <c r="G76" s="3" t="s">
@@ -4367,10 +4367,10 @@
       <c r="A77" s="9">
         <v>76</v>
       </c>
-      <c r="B77" s="1">
-        <v>1000619</v>
-      </c>
-      <c r="C77" s="16" t="s">
+      <c r="B77" s="16">
+        <v>1000621</v>
+      </c>
+      <c r="C77" s="17" t="s">
         <v>63</v>
       </c>
       <c r="D77" s="7" t="s">
@@ -4379,7 +4379,7 @@
       <c r="E77" s="2">
         <v>1</v>
       </c>
-      <c r="F77" s="17" t="s">
+      <c r="F77" s="18" t="s">
         <v>143</v>
       </c>
       <c r="G77" s="3" t="s">
@@ -4393,10 +4393,10 @@
       <c r="A78" s="9">
         <v>77</v>
       </c>
-      <c r="B78" s="1">
-        <v>1000620</v>
-      </c>
-      <c r="C78" s="16" t="s">
+      <c r="B78" s="16">
+        <v>1000622</v>
+      </c>
+      <c r="C78" s="17" t="s">
         <v>68</v>
       </c>
       <c r="D78" s="7" t="s">
@@ -4405,7 +4405,7 @@
       <c r="E78" s="2">
         <v>1</v>
       </c>
-      <c r="F78" s="17" t="s">
+      <c r="F78" s="18" t="s">
         <v>143</v>
       </c>
       <c r="G78" s="3" t="s">
@@ -4419,10 +4419,10 @@
       <c r="A79" s="9">
         <v>78</v>
       </c>
-      <c r="B79" s="1">
-        <v>1000621</v>
-      </c>
-      <c r="C79" s="16" t="s">
+      <c r="B79" s="16">
+        <v>1000623</v>
+      </c>
+      <c r="C79" s="17" t="s">
         <v>72</v>
       </c>
       <c r="D79" s="1" t="s">
@@ -4431,7 +4431,7 @@
       <c r="E79" s="2">
         <v>1</v>
       </c>
-      <c r="F79" s="17" t="s">
+      <c r="F79" s="18" t="s">
         <v>143</v>
       </c>
       <c r="G79" s="3" t="s">
@@ -4445,10 +4445,10 @@
       <c r="A80" s="9">
         <v>79</v>
       </c>
-      <c r="B80" s="1">
-        <v>1000622</v>
-      </c>
-      <c r="C80" s="16" t="s">
+      <c r="B80" s="16">
+        <v>1000624</v>
+      </c>
+      <c r="C80" s="17" t="s">
         <v>82</v>
       </c>
       <c r="D80" s="1" t="s">
@@ -4457,7 +4457,7 @@
       <c r="E80" s="2">
         <v>1</v>
       </c>
-      <c r="F80" s="17" t="s">
+      <c r="F80" s="18" t="s">
         <v>143</v>
       </c>
       <c r="G80" s="3" t="s">
@@ -4471,10 +4471,10 @@
       <c r="A81" s="9">
         <v>80</v>
       </c>
-      <c r="B81" s="1">
-        <v>1000623</v>
-      </c>
-      <c r="C81" s="16" t="s">
+      <c r="B81" s="16">
+        <v>1000625</v>
+      </c>
+      <c r="C81" s="17" t="s">
         <v>82</v>
       </c>
       <c r="D81" s="7" t="s">
@@ -4483,7 +4483,7 @@
       <c r="E81" s="2">
         <v>1</v>
       </c>
-      <c r="F81" s="17" t="s">
+      <c r="F81" s="18" t="s">
         <v>143</v>
       </c>
       <c r="G81" s="3" t="s">
@@ -4497,10 +4497,10 @@
       <c r="A82" s="9">
         <v>81</v>
       </c>
-      <c r="B82" s="1">
-        <v>1000624</v>
-      </c>
-      <c r="C82" s="16" t="s">
+      <c r="B82" s="16">
+        <v>1000626</v>
+      </c>
+      <c r="C82" s="17" t="s">
         <v>82</v>
       </c>
       <c r="D82" s="7" t="s">
@@ -4509,7 +4509,7 @@
       <c r="E82" s="2">
         <v>1</v>
       </c>
-      <c r="F82" s="17" t="s">
+      <c r="F82" s="18" t="s">
         <v>143</v>
       </c>
       <c r="G82" s="3" t="s">
@@ -4523,10 +4523,10 @@
       <c r="A83" s="9">
         <v>82</v>
       </c>
-      <c r="B83" s="1">
-        <v>1000625</v>
-      </c>
-      <c r="C83" s="16" t="s">
+      <c r="B83" s="16">
+        <v>1000627</v>
+      </c>
+      <c r="C83" s="17" t="s">
         <v>63</v>
       </c>
       <c r="D83" s="7" t="s">
@@ -4535,7 +4535,7 @@
       <c r="E83" s="2">
         <v>1</v>
       </c>
-      <c r="F83" s="17" t="s">
+      <c r="F83" s="18" t="s">
         <v>143</v>
       </c>
       <c r="G83" s="3" t="s">
@@ -4549,10 +4549,10 @@
       <c r="A84" s="9">
         <v>83</v>
       </c>
-      <c r="B84" s="1">
-        <v>1000626</v>
-      </c>
-      <c r="C84" s="16" t="s">
+      <c r="B84" s="16">
+        <v>1000628</v>
+      </c>
+      <c r="C84" s="17" t="s">
         <v>80</v>
       </c>
       <c r="D84" s="7" t="s">
@@ -4561,7 +4561,7 @@
       <c r="E84" s="2">
         <v>1</v>
       </c>
-      <c r="F84" s="17" t="s">
+      <c r="F84" s="18" t="s">
         <v>143</v>
       </c>
       <c r="G84" s="3" t="s">
@@ -4575,10 +4575,10 @@
       <c r="A85" s="9">
         <v>84</v>
       </c>
-      <c r="B85" s="1">
-        <v>1000627</v>
-      </c>
-      <c r="C85" s="16" t="s">
+      <c r="B85" s="16">
+        <v>1000629</v>
+      </c>
+      <c r="C85" s="17" t="s">
         <v>72</v>
       </c>
       <c r="D85" s="3" t="s">
@@ -4587,7 +4587,7 @@
       <c r="E85" s="2">
         <v>1</v>
       </c>
-      <c r="F85" s="17" t="s">
+      <c r="F85" s="18" t="s">
         <v>143</v>
       </c>
       <c r="G85" s="3" t="s">
@@ -4601,10 +4601,10 @@
       <c r="A86" s="9">
         <v>85</v>
       </c>
-      <c r="B86" s="1">
-        <v>1000628</v>
-      </c>
-      <c r="C86" s="16" t="s">
+      <c r="B86" s="16">
+        <v>1000630</v>
+      </c>
+      <c r="C86" s="17" t="s">
         <v>68</v>
       </c>
       <c r="D86" s="3" t="s">
@@ -4613,7 +4613,7 @@
       <c r="E86" s="2">
         <v>1</v>
       </c>
-      <c r="F86" s="17" t="s">
+      <c r="F86" s="18" t="s">
         <v>143</v>
       </c>
       <c r="G86" s="3" t="s">
@@ -4627,10 +4627,10 @@
       <c r="A87" s="9">
         <v>86</v>
       </c>
-      <c r="B87" s="1">
-        <v>1000629</v>
-      </c>
-      <c r="C87" s="16" t="s">
+      <c r="B87" s="16">
+        <v>1000631</v>
+      </c>
+      <c r="C87" s="17" t="s">
         <v>82</v>
       </c>
       <c r="D87" s="7" t="s">
@@ -4639,7 +4639,7 @@
       <c r="E87" s="2">
         <v>1</v>
       </c>
-      <c r="F87" s="17" t="s">
+      <c r="F87" s="18" t="s">
         <v>143</v>
       </c>
       <c r="G87" s="3" t="s">
@@ -4653,10 +4653,10 @@
       <c r="A88" s="9">
         <v>87</v>
       </c>
-      <c r="B88" s="1">
-        <v>1000630</v>
-      </c>
-      <c r="C88" s="16" t="s">
+      <c r="B88" s="16">
+        <v>1000632</v>
+      </c>
+      <c r="C88" s="17" t="s">
         <v>151</v>
       </c>
       <c r="D88" s="7" t="s">
@@ -4665,7 +4665,7 @@
       <c r="E88" s="2">
         <v>1</v>
       </c>
-      <c r="F88" s="17" t="s">
+      <c r="F88" s="18" t="s">
         <v>143</v>
       </c>
       <c r="G88" s="3" t="s">
@@ -4679,10 +4679,10 @@
       <c r="A89" s="9">
         <v>88</v>
       </c>
-      <c r="B89" s="1">
-        <v>1000631</v>
-      </c>
-      <c r="C89" s="16" t="s">
+      <c r="B89" s="16">
+        <v>1000633</v>
+      </c>
+      <c r="C89" s="17" t="s">
         <v>72</v>
       </c>
       <c r="D89" s="7" t="s">
@@ -4691,7 +4691,7 @@
       <c r="E89" s="2">
         <v>1</v>
       </c>
-      <c r="F89" s="17" t="s">
+      <c r="F89" s="18" t="s">
         <v>143</v>
       </c>
       <c r="G89" s="3" t="s">
@@ -4705,10 +4705,10 @@
       <c r="A90" s="9">
         <v>89</v>
       </c>
-      <c r="B90" s="1">
-        <v>1000632</v>
-      </c>
-      <c r="C90" s="16" t="s">
+      <c r="B90" s="16">
+        <v>1000634</v>
+      </c>
+      <c r="C90" s="17" t="s">
         <v>80</v>
       </c>
       <c r="D90" s="7" t="s">
@@ -4717,7 +4717,7 @@
       <c r="E90" s="2">
         <v>1</v>
       </c>
-      <c r="F90" s="17" t="s">
+      <c r="F90" s="18" t="s">
         <v>143</v>
       </c>
       <c r="G90" s="3" t="s">
@@ -4731,10 +4731,10 @@
       <c r="A91" s="9">
         <v>90</v>
       </c>
-      <c r="B91" s="1">
-        <v>1000633</v>
-      </c>
-      <c r="C91" s="18" t="s">
+      <c r="B91" s="16">
+        <v>1000635</v>
+      </c>
+      <c r="C91" s="19" t="s">
         <v>155</v>
       </c>
       <c r="D91" s="7" t="s">
@@ -4743,7 +4743,7 @@
       <c r="E91" s="2">
         <v>1</v>
       </c>
-      <c r="F91" s="17" t="s">
+      <c r="F91" s="18" t="s">
         <v>143</v>
       </c>
       <c r="G91" s="3" t="s">
@@ -4757,10 +4757,10 @@
       <c r="A92" s="9">
         <v>91</v>
       </c>
-      <c r="B92" s="1">
-        <v>1000634</v>
-      </c>
-      <c r="C92" s="18" t="s">
+      <c r="B92" s="16">
+        <v>1000636</v>
+      </c>
+      <c r="C92" s="19" t="s">
         <v>156</v>
       </c>
       <c r="D92" s="7" t="s">
@@ -4769,7 +4769,7 @@
       <c r="E92" s="2">
         <v>1</v>
       </c>
-      <c r="F92" s="17" t="s">
+      <c r="F92" s="18" t="s">
         <v>143</v>
       </c>
       <c r="G92" s="3" t="s">
@@ -4783,10 +4783,10 @@
       <c r="A93" s="9">
         <v>92</v>
       </c>
-      <c r="B93" s="1">
-        <v>1000635</v>
-      </c>
-      <c r="C93" s="16" t="s">
+      <c r="B93" s="16">
+        <v>1000637</v>
+      </c>
+      <c r="C93" s="17" t="s">
         <v>82</v>
       </c>
       <c r="D93" s="7" t="s">
@@ -4795,7 +4795,7 @@
       <c r="E93" s="2">
         <v>1</v>
       </c>
-      <c r="F93" s="17" t="s">
+      <c r="F93" s="18" t="s">
         <v>143</v>
       </c>
       <c r="G93" s="3" t="s">
@@ -4809,10 +4809,10 @@
       <c r="A94" s="9">
         <v>93</v>
       </c>
-      <c r="B94" s="1">
-        <v>1000636</v>
-      </c>
-      <c r="C94" s="16" t="s">
+      <c r="B94" s="16">
+        <v>1000638</v>
+      </c>
+      <c r="C94" s="17" t="s">
         <v>72</v>
       </c>
       <c r="D94" s="7" t="s">
@@ -4821,7 +4821,7 @@
       <c r="E94" s="2">
         <v>1</v>
       </c>
-      <c r="F94" s="17" t="s">
+      <c r="F94" s="18" t="s">
         <v>143</v>
       </c>
       <c r="G94" s="3" t="s">
@@ -4835,10 +4835,10 @@
       <c r="A95" s="9">
         <v>94</v>
       </c>
-      <c r="B95" s="19">
-        <v>1000639</v>
-      </c>
-      <c r="C95" s="16" t="s">
+      <c r="B95" s="16">
+        <v>1000640</v>
+      </c>
+      <c r="C95" s="17" t="s">
         <v>82</v>
       </c>
       <c r="D95" s="20" t="s">
@@ -4847,7 +4847,7 @@
       <c r="E95" s="2">
         <v>1</v>
       </c>
-      <c r="F95" s="17" t="s">
+      <c r="F95" s="18" t="s">
         <v>157</v>
       </c>
       <c r="G95" s="3" t="s">
@@ -4867,10 +4867,10 @@
       <c r="A96" s="9">
         <v>95</v>
       </c>
-      <c r="B96" s="19">
-        <v>1000640</v>
-      </c>
-      <c r="C96" s="16" t="s">
+      <c r="B96" s="16">
+        <v>1000641</v>
+      </c>
+      <c r="C96" s="17" t="s">
         <v>82</v>
       </c>
       <c r="D96" s="20" t="s">
@@ -4879,7 +4879,7 @@
       <c r="E96" s="2">
         <v>1</v>
       </c>
-      <c r="F96" s="17" t="s">
+      <c r="F96" s="18" t="s">
         <v>157</v>
       </c>
       <c r="G96" s="3" t="s">
@@ -4899,10 +4899,10 @@
       <c r="A97" s="9">
         <v>96</v>
       </c>
-      <c r="B97" s="19">
-        <v>1000641</v>
-      </c>
-      <c r="C97" s="16" t="s">
+      <c r="B97" s="16">
+        <v>1000642</v>
+      </c>
+      <c r="C97" s="17" t="s">
         <v>82</v>
       </c>
       <c r="D97" s="20" t="s">
@@ -4911,7 +4911,7 @@
       <c r="E97" s="2">
         <v>1</v>
       </c>
-      <c r="F97" s="17" t="s">
+      <c r="F97" s="18" t="s">
         <v>157</v>
       </c>
       <c r="G97" s="3" t="s">
@@ -4931,10 +4931,10 @@
       <c r="A98" s="9">
         <v>97</v>
       </c>
-      <c r="B98" s="19">
-        <v>1000642</v>
-      </c>
-      <c r="C98" s="16" t="s">
+      <c r="B98" s="16">
+        <v>1000643</v>
+      </c>
+      <c r="C98" s="17" t="s">
         <v>82</v>
       </c>
       <c r="D98" s="20" t="s">
@@ -4943,7 +4943,7 @@
       <c r="E98" s="2">
         <v>1</v>
       </c>
-      <c r="F98" s="17" t="s">
+      <c r="F98" s="18" t="s">
         <v>157</v>
       </c>
       <c r="G98" s="3" t="s">
@@ -4963,10 +4963,10 @@
       <c r="A99" s="9">
         <v>98</v>
       </c>
-      <c r="B99" s="19">
-        <v>1000643</v>
-      </c>
-      <c r="C99" s="16" t="s">
+      <c r="B99" s="16">
+        <v>1000644</v>
+      </c>
+      <c r="C99" s="17" t="s">
         <v>82</v>
       </c>
       <c r="D99" s="20" t="s">
@@ -4975,7 +4975,7 @@
       <c r="E99" s="2">
         <v>1</v>
       </c>
-      <c r="F99" s="17" t="s">
+      <c r="F99" s="18" t="s">
         <v>157</v>
       </c>
       <c r="G99" s="3" t="s">
@@ -4995,10 +4995,10 @@
       <c r="A100" s="9">
         <v>99</v>
       </c>
-      <c r="B100" s="19">
-        <v>1000644</v>
-      </c>
-      <c r="C100" s="16" t="s">
+      <c r="B100" s="16">
+        <v>1000645</v>
+      </c>
+      <c r="C100" s="17" t="s">
         <v>82</v>
       </c>
       <c r="D100" s="20" t="s">
@@ -5007,7 +5007,7 @@
       <c r="E100" s="2">
         <v>1</v>
       </c>
-      <c r="F100" s="17" t="s">
+      <c r="F100" s="18" t="s">
         <v>157</v>
       </c>
       <c r="G100" s="3" t="s">
@@ -5027,10 +5027,10 @@
       <c r="A101" s="9">
         <v>100</v>
       </c>
-      <c r="B101" s="19">
-        <v>1000645</v>
-      </c>
-      <c r="C101" s="16" t="s">
+      <c r="B101" s="16">
+        <v>1000646</v>
+      </c>
+      <c r="C101" s="17" t="s">
         <v>82</v>
       </c>
       <c r="D101" s="20" t="s">
@@ -5039,7 +5039,7 @@
       <c r="E101" s="2">
         <v>1</v>
       </c>
-      <c r="F101" s="17" t="s">
+      <c r="F101" s="18" t="s">
         <v>157</v>
       </c>
       <c r="G101" s="3" t="s">
@@ -5059,10 +5059,10 @@
       <c r="A102" s="9">
         <v>101</v>
       </c>
-      <c r="B102" s="19">
-        <v>1000646</v>
-      </c>
-      <c r="C102" s="16" t="s">
+      <c r="B102" s="16">
+        <v>1000647</v>
+      </c>
+      <c r="C102" s="17" t="s">
         <v>82</v>
       </c>
       <c r="D102" s="20" t="s">
@@ -5071,7 +5071,7 @@
       <c r="E102" s="2">
         <v>1</v>
       </c>
-      <c r="F102" s="17" t="s">
+      <c r="F102" s="18" t="s">
         <v>157</v>
       </c>
       <c r="G102" s="3" t="s">
@@ -5085,10 +5085,10 @@
       <c r="A103" s="9">
         <v>102</v>
       </c>
-      <c r="B103" s="19">
-        <v>1000647</v>
-      </c>
-      <c r="C103" s="16" t="s">
+      <c r="B103" s="16">
+        <v>1000648</v>
+      </c>
+      <c r="C103" s="17" t="s">
         <v>82</v>
       </c>
       <c r="D103" s="20" t="s">
@@ -5097,7 +5097,7 @@
       <c r="E103" s="2">
         <v>1</v>
       </c>
-      <c r="F103" s="17" t="s">
+      <c r="F103" s="18" t="s">
         <v>157</v>
       </c>
       <c r="G103" s="3" t="s">
@@ -5106,6 +5106,9 @@
       <c r="H103" s="3" t="s">
         <v>159</v>
       </c>
+    </row>
+    <row r="104" spans="2:2">
+      <c r="B104" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/config_5.25/activity_ty_task_config.xlsx
+++ b/config_5.25/activity_ty_task_config.xlsx
@@ -80,55 +80,55 @@
     <t>act_mfhf</t>
   </si>
   <si>
+    <t>hlfl_bg_1</t>
+  </si>
+  <si>
+    <t>奖励话费</t>
+  </si>
+  <si>
+    <t>act_mfhf_cjj</t>
+  </si>
+  <si>
+    <t>奖励话费_cjj</t>
+  </si>
+  <si>
+    <t>act_lgfl_normal</t>
+  </si>
+  <si>
+    <t>hhfl_bg_1</t>
+  </si>
+  <si>
+    <t>感恩回馈--v3--捕鱼</t>
+  </si>
+  <si>
+    <t>act_lgfl_v4_normal</t>
+  </si>
+  <si>
+    <t>感恩回馈--v4--捕鱼</t>
+  </si>
+  <si>
+    <t>act_lgfl_cjj</t>
+  </si>
+  <si>
+    <t>感恩回馈--v3--冲金鸡</t>
+  </si>
+  <si>
+    <t>act_lgfl_v4_cjj</t>
+  </si>
+  <si>
+    <t>感恩回馈--v4--冲金鸡</t>
+  </si>
+  <si>
+    <t>act_mfhf_byam</t>
+  </si>
+  <si>
     <t>mfhf_bg_1</t>
   </si>
   <si>
-    <t>奖励话费</t>
-  </si>
-  <si>
-    <t>act_mfhf_cjj</t>
-  </si>
-  <si>
-    <t>奖励话费_cjj</t>
-  </si>
-  <si>
-    <t>act_lgfl_normal</t>
-  </si>
-  <si>
-    <t>hhfl_bg_1</t>
-  </si>
-  <si>
-    <t>感恩回馈--v3--捕鱼</t>
-  </si>
-  <si>
-    <t>act_lgfl_v4_normal</t>
-  </si>
-  <si>
-    <t>感恩回馈--v4--捕鱼</t>
-  </si>
-  <si>
-    <t>act_lgfl_cjj</t>
-  </si>
-  <si>
-    <t>感恩回馈--v3--冲金鸡</t>
-  </si>
-  <si>
-    <t>act_lgfl_v4_cjj</t>
-  </si>
-  <si>
-    <t>感恩回馈--v4--冲金鸡</t>
-  </si>
-  <si>
-    <t>act_mfhf_byam</t>
-  </si>
-  <si>
     <t>奖励话费_byam</t>
   </si>
   <si>
     <t>act_ymfl</t>
-  </si>
-  <si>
-    <t>ymfl_bg_1</t>
   </si>
   <si>
     <t>月末返利</t>
@@ -733,9 +733,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -770,6 +770,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF171A1D"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="10.5"/>
       <color rgb="FF171A1D"/>
       <name val="Segoe UI"/>
@@ -777,28 +783,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF171A1D"/>
-      <name val="Segoe UI"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -812,30 +797,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -857,24 +850,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -888,8 +888,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -904,16 +905,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -970,7 +970,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -982,37 +1036,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1024,13 +1048,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1048,7 +1072,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1060,73 +1114,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1155,6 +1155,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1174,31 +1189,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1208,6 +1210,15 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1227,28 +1238,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1258,10 +1258,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1270,133 +1270,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -1462,10 +1462,10 @@
     <xf numFmtId="3" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1789,7 +1789,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -1847,7 +1847,7 @@
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
     </row>
-    <row r="3" ht="15.75" spans="1:5">
+    <row r="3" ht="16.5" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1868,10 +1868,10 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="28" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="24" t="s">
@@ -1885,10 +1885,10 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="28" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="24" t="s">
@@ -1902,10 +1902,10 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="28" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="24" t="s">
@@ -1919,10 +1919,10 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="28" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="24" t="s">
@@ -1939,25 +1939,25 @@
       <c r="B8" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="28" t="s">
-        <v>8</v>
+      <c r="C8" s="29" t="s">
+        <v>22</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" ht="15.75" spans="1:5">
+    <row r="9" ht="16.5" spans="1:5">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
@@ -1979,7 +1979,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -2165,7 +2165,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -2192,10 +2192,10 @@
   <sheetPr/>
   <dimension ref="A1:S104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F106" sqref="F106"/>
+      <selection pane="bottomLeft" activeCell="K95" sqref="K95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>

--- a/config_5.25/activity_ty_task_config.xlsx
+++ b/config_5.25/activity_ty_task_config.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="189">
   <si>
     <t>index|索引</t>
   </si>
@@ -652,73 +652,94 @@
     </r>
   </si>
   <si>
+    <t>"jing_bi","prop_web_chip_huafei","swjl_1"</t>
+  </si>
+  <si>
+    <t>"15000000","2400",</t>
+  </si>
+  <si>
+    <t>"shop_bay",</t>
+  </si>
+  <si>
+    <t>swjl_1</t>
+  </si>
+  <si>
+    <t>美的智能风扇</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_web_chip_huafei","swjl_2"</t>
+  </si>
+  <si>
+    <t>"4000000","900",</t>
+  </si>
+  <si>
+    <t>swjl_2</t>
+  </si>
+  <si>
+    <t>不锈钢绞肉机</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_web_chip_huafei","swjl_3"</t>
+  </si>
+  <si>
+    <t>"2000000","450",</t>
+  </si>
+  <si>
+    <t>swjl_3</t>
+  </si>
+  <si>
+    <t>豪华坚果礼包</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_web_chip_huafei","swjl_4"</t>
+  </si>
+  <si>
+    <t>"800000","150",</t>
+  </si>
+  <si>
+    <t>swjl_4</t>
+  </si>
+  <si>
+    <t>玉米热狗肠20支</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_web_chip_huafei","swjl_5"</t>
+  </si>
+  <si>
+    <t>"400000","70",</t>
+  </si>
+  <si>
+    <t>swjl_5</t>
+  </si>
+  <si>
+    <t>卫龙亲嘴烧30袋</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_web_chip_huafei","swjl_6"</t>
+  </si>
+  <si>
+    <t>"350000","50",</t>
+  </si>
+  <si>
+    <t>swjl_6</t>
+  </si>
+  <si>
+    <t>手帕纸10包</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_web_chip_huafei","swjl_7"</t>
+  </si>
+  <si>
+    <t>"220000","30",</t>
+  </si>
+  <si>
+    <t>swjl_7</t>
+  </si>
+  <si>
+    <t>棉签100支</t>
+  </si>
+  <si>
     <t>"jing_bi","prop_web_chip_huafei",</t>
-  </si>
-  <si>
-    <t>"15000000","2400",</t>
-  </si>
-  <si>
-    <t>"shop_bay",</t>
-  </si>
-  <si>
-    <t>swjl_1</t>
-  </si>
-  <si>
-    <t>美的智能风扇</t>
-  </si>
-  <si>
-    <t>"4000000","900",</t>
-  </si>
-  <si>
-    <t>swjl_2</t>
-  </si>
-  <si>
-    <t>不锈钢绞肉机</t>
-  </si>
-  <si>
-    <t>"2000000","450",</t>
-  </si>
-  <si>
-    <t>swjl_3</t>
-  </si>
-  <si>
-    <t>豪华坚果礼包</t>
-  </si>
-  <si>
-    <t>"800000","150",</t>
-  </si>
-  <si>
-    <t>swjl_4</t>
-  </si>
-  <si>
-    <t>玉米热狗肠20支</t>
-  </si>
-  <si>
-    <t>"400000","70",</t>
-  </si>
-  <si>
-    <t>swjl_5</t>
-  </si>
-  <si>
-    <t>卫龙亲嘴烧30袋</t>
-  </si>
-  <si>
-    <t>"350000","50",</t>
-  </si>
-  <si>
-    <t>swjl_6</t>
-  </si>
-  <si>
-    <t>手帕纸10包</t>
-  </si>
-  <si>
-    <t>"220000","30",</t>
-  </si>
-  <si>
-    <t>swjl_7</t>
-  </si>
-  <si>
-    <t>棉签100支</t>
   </si>
   <si>
     <t>"150000","20",</t>
@@ -732,8 +753,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -783,13 +804,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -803,11 +817,56 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -820,7 +879,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -835,16 +918,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -853,67 +935,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -970,49 +991,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1030,19 +1057,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1054,79 +1141,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1155,6 +1176,69 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1166,21 +1250,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1204,199 +1273,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -2192,10 +2213,10 @@
   <sheetPr/>
   <dimension ref="A1:S104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K95" sqref="K95"/>
+      <selection pane="bottomLeft" activeCell="F104" sqref="F104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -4831,7 +4852,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="95" spans="1:11">
+    <row r="95" spans="1:13">
       <c r="A95" s="9">
         <v>94</v>
       </c>
@@ -4856,14 +4877,14 @@
       <c r="H95" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="J95" s="3" t="s">
+      <c r="L95" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="K95" s="3" t="s">
+      <c r="M95" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="96" spans="1:11">
+    <row r="96" spans="1:13">
       <c r="A96" s="9">
         <v>95</v>
       </c>
@@ -4880,22 +4901,22 @@
         <v>1</v>
       </c>
       <c r="F96" s="18" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H96" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="J96" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="K96" s="3" t="s">
+      <c r="L96" s="3" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="97" spans="1:11">
+      <c r="M96" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
       <c r="A97" s="9">
         <v>96</v>
       </c>
@@ -4912,22 +4933,22 @@
         <v>1</v>
       </c>
       <c r="F97" s="18" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H97" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="J97" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="K97" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11">
+      <c r="L97" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="M97" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
       <c r="A98" s="9">
         <v>97</v>
       </c>
@@ -4944,22 +4965,22 @@
         <v>1</v>
       </c>
       <c r="F98" s="18" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="H98" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="J98" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="K98" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11">
+      <c r="L98" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="M98" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
       <c r="A99" s="9">
         <v>98</v>
       </c>
@@ -4976,22 +4997,22 @@
         <v>1</v>
       </c>
       <c r="F99" s="18" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="H99" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="J99" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="K99" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11">
+      <c r="L99" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="M99" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
       <c r="A100" s="9">
         <v>99</v>
       </c>
@@ -5008,22 +5029,22 @@
         <v>1</v>
       </c>
       <c r="F100" s="18" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11">
+      <c r="L100" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
       <c r="A101" s="9">
         <v>100</v>
       </c>
@@ -5040,19 +5061,19 @@
         <v>1</v>
       </c>
       <c r="F101" s="18" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="K101" s="3" t="s">
-        <v>179</v>
+      <c r="L101" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="M101" s="3" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -5072,10 +5093,10 @@
         <v>1</v>
       </c>
       <c r="F102" s="18" t="s">
-        <v>157</v>
+        <v>186</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>159</v>
@@ -5098,10 +5119,10 @@
         <v>1</v>
       </c>
       <c r="F103" s="18" t="s">
-        <v>157</v>
+        <v>186</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="H103" s="3" t="s">
         <v>159</v>

--- a/config_5.25/activity_ty_task_config.xlsx
+++ b/config_5.25/activity_ty_task_config.xlsx
@@ -655,7 +655,7 @@
     <t>"jing_bi","prop_web_chip_huafei","swjl_1"</t>
   </si>
   <si>
-    <t>"15000000","2400",</t>
+    <t>"15000000","2400","美的智能风扇"</t>
   </si>
   <si>
     <t>"shop_bay",</t>
@@ -670,7 +670,7 @@
     <t>"jing_bi","prop_web_chip_huafei","swjl_2"</t>
   </si>
   <si>
-    <t>"4000000","900",</t>
+    <t>"4000000","900","不锈钢绞肉机"</t>
   </si>
   <si>
     <t>swjl_2</t>
@@ -682,7 +682,7 @@
     <t>"jing_bi","prop_web_chip_huafei","swjl_3"</t>
   </si>
   <si>
-    <t>"2000000","450",</t>
+    <t>"2000000","450","豪华坚果礼包"</t>
   </si>
   <si>
     <t>swjl_3</t>
@@ -694,7 +694,7 @@
     <t>"jing_bi","prop_web_chip_huafei","swjl_4"</t>
   </si>
   <si>
-    <t>"800000","150",</t>
+    <t>"800000","150","玉米热狗肠20支"</t>
   </si>
   <si>
     <t>swjl_4</t>
@@ -706,7 +706,7 @@
     <t>"jing_bi","prop_web_chip_huafei","swjl_5"</t>
   </si>
   <si>
-    <t>"400000","70",</t>
+    <t>"400000","70","卫龙亲嘴烧30袋"</t>
   </si>
   <si>
     <t>swjl_5</t>
@@ -718,7 +718,7 @@
     <t>"jing_bi","prop_web_chip_huafei","swjl_6"</t>
   </si>
   <si>
-    <t>"350000","50",</t>
+    <t>"350000","50","手帕纸10包"</t>
   </si>
   <si>
     <t>swjl_6</t>
@@ -730,7 +730,7 @@
     <t>"jing_bi","prop_web_chip_huafei","swjl_7"</t>
   </si>
   <si>
-    <t>"220000","30",</t>
+    <t>"220000","30","棉签100支"</t>
   </si>
   <si>
     <t>swjl_7</t>
@@ -753,10 +753,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -803,6 +803,45 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -817,22 +856,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -840,23 +866,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -878,6 +888,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -885,17 +917,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -911,30 +934,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -991,6 +991,138 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1003,73 +1135,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1081,73 +1147,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1176,50 +1176,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1239,17 +1200,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1273,16 +1234,55 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1291,133 +1291,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -2213,10 +2213,10 @@
   <sheetPr/>
   <dimension ref="A1:S104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F104" sqref="F104"/>
+      <selection pane="bottomLeft" activeCell="I99" sqref="I99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -2227,7 +2227,7 @@
     <col min="4" max="4" width="42.125" style="3" customWidth="1"/>
     <col min="5" max="5" width="11.375" style="3" customWidth="1"/>
     <col min="6" max="6" width="61.75" style="3" customWidth="1"/>
-    <col min="7" max="7" width="24.375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="34.625" style="3" customWidth="1"/>
     <col min="8" max="8" width="28.875" style="3" customWidth="1"/>
     <col min="9" max="9" width="86.125" style="3" customWidth="1"/>
     <col min="10" max="10" width="22.875" style="3" customWidth="1"/>

--- a/config_5.25/activity_ty_task_config.xlsx
+++ b/config_5.25/activity_ty_task_config.xlsx
@@ -661,10 +661,10 @@
     <t>"shop_bay",</t>
   </si>
   <si>
-    <t>swjl_1</t>
-  </si>
-  <si>
-    <t>美的智能风扇</t>
+    <t>swjl_1,</t>
+  </si>
+  <si>
+    <t>美的智能风扇,</t>
   </si>
   <si>
     <t>"jing_bi","prop_web_chip_huafei","swjl_2"</t>
@@ -673,10 +673,10 @@
     <t>"4000000","900","不锈钢绞肉机"</t>
   </si>
   <si>
-    <t>swjl_2</t>
-  </si>
-  <si>
-    <t>不锈钢绞肉机</t>
+    <t>swjl_2,</t>
+  </si>
+  <si>
+    <t>不锈钢绞肉机,</t>
   </si>
   <si>
     <t>"jing_bi","prop_web_chip_huafei","swjl_3"</t>
@@ -685,10 +685,10 @@
     <t>"2000000","450","豪华坚果礼包"</t>
   </si>
   <si>
-    <t>swjl_3</t>
-  </si>
-  <si>
-    <t>豪华坚果礼包</t>
+    <t>swjl_3,</t>
+  </si>
+  <si>
+    <t>豪华坚果礼包,</t>
   </si>
   <si>
     <t>"jing_bi","prop_web_chip_huafei","swjl_4"</t>
@@ -697,10 +697,10 @@
     <t>"800000","150","玉米热狗肠20支"</t>
   </si>
   <si>
-    <t>swjl_4</t>
-  </si>
-  <si>
-    <t>玉米热狗肠20支</t>
+    <t>swjl_4,</t>
+  </si>
+  <si>
+    <t>玉米热狗肠20支,</t>
   </si>
   <si>
     <t>"jing_bi","prop_web_chip_huafei","swjl_5"</t>
@@ -709,10 +709,10 @@
     <t>"400000","70","卫龙亲嘴烧30袋"</t>
   </si>
   <si>
-    <t>swjl_5</t>
-  </si>
-  <si>
-    <t>卫龙亲嘴烧30袋</t>
+    <t>swjl_5,</t>
+  </si>
+  <si>
+    <t>卫龙亲嘴烧30袋,</t>
   </si>
   <si>
     <t>"jing_bi","prop_web_chip_huafei","swjl_6"</t>
@@ -721,10 +721,10 @@
     <t>"350000","50","手帕纸10包"</t>
   </si>
   <si>
-    <t>swjl_6</t>
-  </si>
-  <si>
-    <t>手帕纸10包</t>
+    <t>swjl_6,</t>
+  </si>
+  <si>
+    <t>手帕纸10包,</t>
   </si>
   <si>
     <t>"jing_bi","prop_web_chip_huafei","swjl_7"</t>
@@ -733,10 +733,10 @@
     <t>"220000","30","棉签100支"</t>
   </si>
   <si>
-    <t>swjl_7</t>
-  </si>
-  <si>
-    <t>棉签100支</t>
+    <t>swjl_7,</t>
+  </si>
+  <si>
+    <t>棉签100支,</t>
   </si>
   <si>
     <t>"jing_bi","prop_web_chip_huafei",</t>
@@ -753,10 +753,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -803,17 +803,37 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -828,29 +848,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -858,30 +856,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -897,28 +871,39 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -933,10 +918,25 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -991,97 +991,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1099,7 +1009,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1111,25 +1027,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1142,6 +1100,48 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1176,30 +1176,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1211,26 +1187,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1273,16 +1229,60 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1291,133 +1291,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -2213,10 +2213,10 @@
   <sheetPr/>
   <dimension ref="A1:S104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I99" sqref="I99"/>
+      <selection pane="bottomLeft" activeCell="M104" sqref="M104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>

--- a/config_5.25/activity_ty_task_config.xlsx
+++ b/config_5.25/activity_ty_task_config.xlsx
@@ -661,10 +661,10 @@
     <t>"shop_bay",</t>
   </si>
   <si>
-    <t>swjl_1,</t>
-  </si>
-  <si>
-    <t>美的智能风扇,</t>
+    <t>"swjl_1",</t>
+  </si>
+  <si>
+    <t>"美的智能风扇",</t>
   </si>
   <si>
     <t>"jing_bi","prop_web_chip_huafei","swjl_2"</t>
@@ -673,10 +673,10 @@
     <t>"4000000","900","不锈钢绞肉机"</t>
   </si>
   <si>
-    <t>swjl_2,</t>
-  </si>
-  <si>
-    <t>不锈钢绞肉机,</t>
+    <t>"swjl_2",</t>
+  </si>
+  <si>
+    <t>"不锈钢绞肉机",</t>
   </si>
   <si>
     <t>"jing_bi","prop_web_chip_huafei","swjl_3"</t>
@@ -685,10 +685,10 @@
     <t>"2000000","450","豪华坚果礼包"</t>
   </si>
   <si>
-    <t>swjl_3,</t>
-  </si>
-  <si>
-    <t>豪华坚果礼包,</t>
+    <t>"swjl_3",</t>
+  </si>
+  <si>
+    <t>"豪华坚果礼包",</t>
   </si>
   <si>
     <t>"jing_bi","prop_web_chip_huafei","swjl_4"</t>
@@ -697,10 +697,10 @@
     <t>"800000","150","玉米热狗肠20支"</t>
   </si>
   <si>
-    <t>swjl_4,</t>
-  </si>
-  <si>
-    <t>玉米热狗肠20支,</t>
+    <t>"swjl_4",</t>
+  </si>
+  <si>
+    <t>"玉米热狗肠20支",</t>
   </si>
   <si>
     <t>"jing_bi","prop_web_chip_huafei","swjl_5"</t>
@@ -709,10 +709,10 @@
     <t>"400000","70","卫龙亲嘴烧30袋"</t>
   </si>
   <si>
-    <t>swjl_5,</t>
-  </si>
-  <si>
-    <t>卫龙亲嘴烧30袋,</t>
+    <t>"swjl_5",</t>
+  </si>
+  <si>
+    <t>"卫龙亲嘴烧30袋",</t>
   </si>
   <si>
     <t>"jing_bi","prop_web_chip_huafei","swjl_6"</t>
@@ -721,10 +721,10 @@
     <t>"350000","50","手帕纸10包"</t>
   </si>
   <si>
-    <t>swjl_6,</t>
-  </si>
-  <si>
-    <t>手帕纸10包,</t>
+    <t>"swjl_6",</t>
+  </si>
+  <si>
+    <t>"手帕纸10包",</t>
   </si>
   <si>
     <t>"jing_bi","prop_web_chip_huafei","swjl_7"</t>
@@ -733,10 +733,10 @@
     <t>"220000","30","棉签100支"</t>
   </si>
   <si>
-    <t>swjl_7,</t>
-  </si>
-  <si>
-    <t>棉签100支,</t>
+    <t>"swjl_7",</t>
+  </si>
+  <si>
+    <t>"棉签100支",</t>
   </si>
   <si>
     <t>"jing_bi","prop_web_chip_huafei",</t>
@@ -753,9 +753,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -803,8 +803,69 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -818,29 +879,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -848,14 +887,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -871,61 +910,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -937,6 +921,22 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -991,7 +991,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1009,6 +1045,84 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1021,103 +1135,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1129,25 +1147,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1191,17 +1191,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1209,8 +1203,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1232,10 +1226,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1256,19 +1248,27 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1279,10 +1279,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1291,133 +1291,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -2216,7 +2216,7 @@
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="M104" sqref="M104"/>
+      <selection pane="bottomLeft" activeCell="O107" sqref="O107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>

--- a/config_5.25/activity_ty_task_config.xlsx
+++ b/config_5.25/activity_ty_task_config.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="188">
   <si>
     <t>index|索引</t>
   </si>
@@ -658,9 +658,6 @@
     <t>"15000000","2400","美的智能风扇"</t>
   </si>
   <si>
-    <t>"shop_bay",</t>
-  </si>
-  <si>
     <t>"swjl_1",</t>
   </si>
   <si>
@@ -753,9 +750,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -811,17 +808,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -841,24 +862,62 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -873,68 +932,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -991,7 +988,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1003,25 +1066,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1033,25 +1102,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1063,85 +1126,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1177,6 +1174,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1194,32 +1206,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1273,16 +1261,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1291,37 +1288,37 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1330,94 +1327,94 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -2213,10 +2210,10 @@
   <sheetPr/>
   <dimension ref="A1:S104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="O107" sqref="O107"/>
+      <selection pane="bottomLeft" activeCell="I22" sqref="I22:I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -4875,13 +4872,13 @@
         <v>158</v>
       </c>
       <c r="H95" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="L95" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="L95" s="3" t="s">
+      <c r="M95" s="3" t="s">
         <v>160</v>
-      </c>
-      <c r="M95" s="3" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="96" spans="1:13">
@@ -4901,19 +4898,19 @@
         <v>1</v>
       </c>
       <c r="F96" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="G96" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="G96" s="3" t="s">
+      <c r="H96" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="L96" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="H96" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="L96" s="3" t="s">
+      <c r="M96" s="3" t="s">
         <v>164</v>
-      </c>
-      <c r="M96" s="3" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="97" spans="1:13">
@@ -4933,19 +4930,19 @@
         <v>1</v>
       </c>
       <c r="F97" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="G97" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="G97" s="3" t="s">
+      <c r="H97" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="L97" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="H97" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="L97" s="3" t="s">
+      <c r="M97" s="3" t="s">
         <v>168</v>
-      </c>
-      <c r="M97" s="3" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="98" spans="1:13">
@@ -4965,19 +4962,19 @@
         <v>1</v>
       </c>
       <c r="F98" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="G98" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="G98" s="3" t="s">
+      <c r="H98" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="L98" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="H98" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="L98" s="3" t="s">
+      <c r="M98" s="3" t="s">
         <v>172</v>
-      </c>
-      <c r="M98" s="3" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="99" spans="1:13">
@@ -4997,19 +4994,19 @@
         <v>1</v>
       </c>
       <c r="F99" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="G99" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="G99" s="3" t="s">
+      <c r="H99" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="L99" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="H99" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="L99" s="3" t="s">
+      <c r="M99" s="3" t="s">
         <v>176</v>
-      </c>
-      <c r="M99" s="3" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="100" spans="1:13">
@@ -5029,19 +5026,19 @@
         <v>1</v>
       </c>
       <c r="F100" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="G100" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="G100" s="3" t="s">
+      <c r="H100" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="L100" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="L100" s="3" t="s">
+      <c r="M100" s="3" t="s">
         <v>180</v>
-      </c>
-      <c r="M100" s="3" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="101" spans="1:13">
@@ -5061,19 +5058,19 @@
         <v>1</v>
       </c>
       <c r="F101" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="G101" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="G101" s="3" t="s">
+      <c r="H101" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="L101" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="L101" s="3" t="s">
+      <c r="M101" s="3" t="s">
         <v>184</v>
-      </c>
-      <c r="M101" s="3" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -5093,13 +5090,13 @@
         <v>1</v>
       </c>
       <c r="F102" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="G102" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>187</v>
-      </c>
       <c r="H102" s="3" t="s">
-        <v>159</v>
+        <v>99</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -5119,13 +5116,13 @@
         <v>1</v>
       </c>
       <c r="F103" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>159</v>
+        <v>99</v>
       </c>
     </row>
     <row r="104" spans="2:2">
